--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joaqu\Material UNAB\5to Año\Portafolio de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A091C7A7-F747-4255-BDE7-316EBEAAFB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F32EB62-BA8F-44C9-A728-C1B648AA783F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="-5955" windowWidth="17580" windowHeight="12540" xr2:uid="{8B1AD0A1-9825-49C8-9307-8D07FE2EBDF1}"/>
+    <workbookView xWindow="28680" yWindow="-6225" windowWidth="29040" windowHeight="15720" xr2:uid="{8B1AD0A1-9825-49C8-9307-8D07FE2EBDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>N°</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Tareas</t>
+  </si>
+  <si>
+    <t>Asignar Calificación</t>
+  </si>
+  <si>
+    <t>Separar Estudiantes por Rendimiento</t>
   </si>
 </sst>
 </file>
@@ -158,9 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,12 +173,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B681BFB9-9E25-429D-8A65-D57550B3583E}">
-  <dimension ref="B2:U17"/>
+  <dimension ref="B2:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,8 +532,8 @@
     <col min="4" max="19" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
@@ -543,14 +553,12 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -578,379 +586,427 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6">
+      <c r="C4" s="6"/>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>4</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="4">
         <v>3</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>4</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <v>2</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>3</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="2"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="C2:S2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="C2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
